--- a/FoodCourt/src/data/dataMeja.xlsx
+++ b/FoodCourt/src/data/dataMeja.xlsx
@@ -349,7 +349,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
